--- a/Client/Assets/EXCEL/AreaEvent.xlsx
+++ b/Client/Assets/EXCEL/AreaEvent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-1440" yWindow="4230" windowWidth="20730" windowHeight="8115"/>
+    <workbookView xWindow="-555" yWindow="5205" windowWidth="20730" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,19 +37,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>區域星數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ushort</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,6 +114,26 @@
   </si>
   <si>
     <t>該區域代表性卡片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件共用欄位:
+1. 一般戰鬥 - 戰鬥配置表 ID
+2. 發現物品 - 物品表 ID
+3. 發現卡片 - 技能卡片 ID
+4. 觸發劇情 - 劇情表 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ushort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ushort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -137,11 +145,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事件共用欄位:
-1. 一般戰鬥 - 戰鬥配置表 ID
-2. 發現物品 - 物品表 ID
-3. 發現卡片 - 技能卡片 ID
-4. 觸發劇情 - 劇情表 ID</t>
+    <t>任務 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,14 +250,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,7 +543,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -555,69 +559,69 @@
   <sheetData>
     <row r="1" spans="1:17" ht="54" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="3" spans="1:17" s="7" customFormat="1" ht="82.5">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="F3" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -636,25 +640,25 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -677,16 +681,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1168,9 +1172,11 @@
         <v>1</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="8">
@@ -1189,9 +1195,11 @@
         <v>2</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8">
@@ -1210,9 +1218,11 @@
         <v>3</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8">
@@ -1231,9 +1241,11 @@
         <v>4</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8">
@@ -1252,9 +1264,11 @@
         <v>5</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
